--- a/data/Workbook1.xlsx
+++ b/data/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
@@ -57,12 +57,18 @@
   <si>
     <t>R</t>
   </si>
+  <si>
+    <t>Rapsodia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +92,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,7 +117,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -116,21 +129,211 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,15 +663,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="22" customHeight="1">
+    <row r="1" spans="1:19" ht="22" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,213 +684,159 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="22" customHeight="1">
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="22" customHeight="1">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
       <c r="E2">
-        <v>79991</v>
+        <v>7990</v>
       </c>
       <c r="F2">
-        <v>20.505569999999999</v>
+        <v>2.3323990000000001</v>
       </c>
       <c r="G2">
-        <v>18.413672999999999</v>
+        <v>1.995525</v>
       </c>
       <c r="H2">
-        <v>3.142369</v>
+        <v>0.79483400000000004</v>
       </c>
       <c r="I2">
+        <v>11.702728</v>
+      </c>
+      <c r="J2">
         <v>13</v>
       </c>
-      <c r="J2">
-        <v>15.028029999999999</v>
-      </c>
       <c r="K2">
-        <v>0.14127000000000001</v>
+        <v>1.6878299999999999</v>
       </c>
       <c r="L2">
-        <v>5.28749</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="M2">
-        <v>6.1199999999999996E-3</v>
+        <v>0.63805999999999996</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>7.6999999999999996E-4</v>
       </c>
       <c r="O2">
-        <v>14.97217</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>6.6820000000000004E-2</v>
+        <v>1.7004600000000001</v>
       </c>
       <c r="Q2">
-        <v>2.7979699999999998</v>
+        <v>5.3299999999999997E-3</v>
       </c>
       <c r="R2">
-        <v>0.5766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="22" customHeight="1">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="S2">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="22" customHeight="1">
+      <c r="A3">
+        <v>3000</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
       <c r="D3">
         <v>30</v>
       </c>
+      <c r="E3">
+        <v>11989</v>
+      </c>
       <c r="F3">
-        <v>1896.32222</v>
+        <v>3.6708419999999999</v>
       </c>
       <c r="G3">
-        <v>1893.5082890000001</v>
+        <v>3.2581929999999999</v>
       </c>
       <c r="H3">
-        <v>3.8375880000000002</v>
+        <v>1.20723</v>
+      </c>
+      <c r="I3">
+        <v>26.807696</v>
       </c>
       <c r="J3">
-        <v>1888.7982300000001</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>6.3820000000000002E-2</v>
+        <v>2.5503100000000001</v>
       </c>
       <c r="L3">
-        <v>7.4520299999999997</v>
+        <v>8.6199999999999992E-3</v>
       </c>
       <c r="M3">
-        <v>8.0300000000000007E-3</v>
+        <v>1.1108499999999999</v>
+      </c>
+      <c r="N3">
+        <v>1.0300000000000001E-3</v>
       </c>
       <c r="O3">
-        <v>1889.09078</v>
+        <v>7</v>
       </c>
       <c r="P3">
-        <v>6.7570000000000005E-2</v>
+        <v>2.5322100000000001</v>
       </c>
       <c r="Q3">
-        <v>3.7928600000000001</v>
+        <v>8.0499999999999999E-3</v>
       </c>
       <c r="R3">
-        <v>0.55698000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="22" customHeight="1">
-      <c r="A5">
-        <v>4000</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>15989</v>
-      </c>
-      <c r="F5">
-        <v>3.651268</v>
-      </c>
-      <c r="G5">
-        <v>3.2829670000000002</v>
-      </c>
-      <c r="H5">
-        <v>0.63297000000000003</v>
-      </c>
-      <c r="I5">
-        <v>13</v>
-      </c>
-      <c r="J5">
-        <v>2.8585400000000001</v>
-      </c>
-      <c r="K5">
-        <v>1.206E-2</v>
-      </c>
-      <c r="L5">
-        <v>0.77947999999999995</v>
-      </c>
-      <c r="M5">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="N5">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <v>2.8458800000000002</v>
-      </c>
-      <c r="P5">
-        <v>1.132E-2</v>
-      </c>
-      <c r="Q5">
-        <v>0.39604</v>
-      </c>
-      <c r="R5">
-        <v>2.964E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="22" customHeight="1">
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>104.776843</v>
-      </c>
-      <c r="G6">
-        <v>104.058409</v>
-      </c>
-      <c r="H6">
-        <v>0.753498</v>
-      </c>
-      <c r="J6">
-        <v>103.35774000000001</v>
-      </c>
-      <c r="K6">
-        <v>1.159E-2</v>
-      </c>
-      <c r="L6">
-        <v>1.4063399999999999</v>
-      </c>
-      <c r="M6">
-        <v>1.09E-3</v>
-      </c>
-      <c r="O6">
-        <v>103.39904</v>
-      </c>
-      <c r="P6">
-        <v>1.111E-2</v>
-      </c>
-      <c r="Q6">
-        <v>0.61916000000000004</v>
-      </c>
-      <c r="R6">
-        <v>2.9020000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="22" customHeight="1">
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>3285.3720640000001</v>
-      </c>
-      <c r="J7">
-        <v>3283.6979000000001</v>
-      </c>
-      <c r="K7">
-        <v>1.154E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.6612</v>
-      </c>
-      <c r="M7">
-        <v>1.3500000000000001E-3</v>
+        <v>0.69904999999999995</v>
+      </c>
+      <c r="S3">
+        <v>1.8839999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -766,52 +915,52 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>79991</v>
+        <v>79989</v>
       </c>
       <c r="F2">
-        <v>20.505569999999999</v>
+        <v>9.3249669999999991</v>
       </c>
       <c r="G2">
-        <v>18.413672999999999</v>
+        <v>7.1377699999999997</v>
       </c>
       <c r="H2">
-        <v>3.142369</v>
+        <v>6.367159</v>
       </c>
       <c r="I2">
         <v>13</v>
       </c>
       <c r="J2">
-        <v>15.028029999999999</v>
+        <v>3.0670700000000002</v>
       </c>
       <c r="K2">
-        <v>0.14127000000000001</v>
+        <v>6.3850000000000004E-2</v>
       </c>
       <c r="L2">
-        <v>5.28749</v>
+        <v>6.18621</v>
       </c>
       <c r="M2">
-        <v>6.1199999999999996E-3</v>
+        <v>7.7799999999999996E-3</v>
       </c>
       <c r="N2">
         <v>7</v>
       </c>
       <c r="O2">
-        <v>14.97217</v>
+        <v>2.9207900000000002</v>
       </c>
       <c r="P2">
-        <v>6.6820000000000004E-2</v>
+        <v>6.6850000000000007E-2</v>
       </c>
       <c r="Q2">
-        <v>2.7979699999999998</v>
+        <v>3.6027</v>
       </c>
       <c r="R2">
-        <v>0.5766</v>
+        <v>0.54737999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1">
@@ -819,151 +968,368 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>1896.32222</v>
+        <v>25.268312000000002</v>
       </c>
       <c r="G3">
-        <v>1893.5082890000001</v>
+        <v>22.00703</v>
       </c>
       <c r="H3">
-        <v>3.8375880000000002</v>
+        <v>8.2198609999999999</v>
       </c>
       <c r="J3">
-        <v>1888.7982300000001</v>
+        <v>16.93432</v>
       </c>
       <c r="K3">
-        <v>6.3820000000000002E-2</v>
+        <v>6.2979999999999994E-2</v>
       </c>
       <c r="L3">
-        <v>7.4520299999999997</v>
+        <v>8.2649699999999999</v>
       </c>
       <c r="M3">
-        <v>8.0300000000000007E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="O3">
-        <v>1889.09078</v>
+        <v>16.920549999999999</v>
       </c>
       <c r="P3">
-        <v>6.7570000000000005E-2</v>
+        <v>6.6689999999999999E-2</v>
       </c>
       <c r="Q3">
-        <v>3.7928600000000001</v>
+        <v>4.4500900000000003</v>
       </c>
       <c r="R3">
-        <v>0.55698000000000003</v>
+        <v>0.56964000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1">
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>181.43511000000001</v>
+      </c>
+      <c r="G4">
+        <v>177.538794</v>
+      </c>
+      <c r="H4">
+        <v>9.8239579999999993</v>
+      </c>
+      <c r="J4">
+        <v>171.4572</v>
+      </c>
+      <c r="K4">
+        <v>6.3630000000000006E-2</v>
+      </c>
+      <c r="L4">
+        <v>9.9052399999999992</v>
+      </c>
+      <c r="M4">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="O4">
+        <v>171.55844999999999</v>
+      </c>
+      <c r="P4">
+        <v>6.701E-2</v>
+      </c>
+      <c r="Q4">
+        <v>5.3409399999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.57233999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1">
-      <c r="A5">
-        <v>4000</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
       <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>15989</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>3.651268</v>
+        <v>1765.7659659999999</v>
       </c>
       <c r="G5">
-        <v>3.2829670000000002</v>
+        <v>1760.7543989999999</v>
       </c>
       <c r="H5">
-        <v>0.63297000000000003</v>
-      </c>
-      <c r="I5">
-        <v>13</v>
+        <v>11.763083999999999</v>
       </c>
       <c r="J5">
-        <v>2.8585400000000001</v>
+        <v>1753.22784</v>
       </c>
       <c r="K5">
-        <v>1.206E-2</v>
+        <v>6.4269999999999994E-2</v>
       </c>
       <c r="L5">
-        <v>0.77947999999999995</v>
+        <v>12.465479999999999</v>
       </c>
       <c r="M5">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="N5">
-        <v>7</v>
+        <v>8.3099999999999997E-3</v>
       </c>
       <c r="O5">
-        <v>2.8458800000000002</v>
+        <v>1753.5419099999999</v>
       </c>
       <c r="P5">
-        <v>1.132E-2</v>
+        <v>6.6949999999999996E-2</v>
       </c>
       <c r="Q5">
-        <v>0.39604</v>
+        <v>6.5747400000000003</v>
       </c>
       <c r="R5">
-        <v>2.964E-2</v>
+        <v>0.57074000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1">
       <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>14114.265076</v>
+      </c>
+      <c r="G6">
+        <v>14124.759995</v>
+      </c>
+      <c r="H6">
+        <v>13.242153999999999</v>
+      </c>
+      <c r="J6">
+        <v>14098.770399999999</v>
+      </c>
+      <c r="K6">
+        <v>9.0389999999999998E-2</v>
+      </c>
+      <c r="L6">
+        <v>15.395020000000001</v>
+      </c>
+      <c r="M6">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="O6">
+        <v>14115.019840000001</v>
+      </c>
+      <c r="P6">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="Q6">
+        <v>9.0720600000000005</v>
+      </c>
+      <c r="R6">
+        <v>0.57410000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1">
+      <c r="A12" s="2">
+        <v>6.367159</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>79989</v>
+      </c>
+      <c r="F12">
+        <v>8.7492180000000008</v>
+      </c>
+      <c r="G12">
+        <v>6.3865559999999997</v>
+      </c>
+      <c r="H12">
+        <v>3.1655380000000002</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>2.6075200000000001</v>
+      </c>
+      <c r="K12">
+        <v>6.3710000000000003E-2</v>
+      </c>
+      <c r="L12">
+        <v>6.0716200000000002</v>
+      </c>
+      <c r="M12">
+        <v>6.3200000000000001E-3</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>2.56474</v>
+      </c>
+      <c r="P12">
+        <v>6.7320000000000005E-2</v>
+      </c>
+      <c r="Q12">
+        <v>3.1784400000000002</v>
+      </c>
+      <c r="R12">
+        <v>0.57599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1">
+      <c r="A13" s="2">
+        <v>8.2198609999999999</v>
+      </c>
+      <c r="D13">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>104.776843</v>
-      </c>
-      <c r="G6">
-        <v>104.058409</v>
-      </c>
-      <c r="H6">
-        <v>0.753498</v>
-      </c>
-      <c r="J6">
-        <v>103.35774000000001</v>
-      </c>
-      <c r="K6">
-        <v>1.159E-2</v>
-      </c>
-      <c r="L6">
-        <v>1.4063399999999999</v>
-      </c>
-      <c r="M6">
-        <v>1.09E-3</v>
-      </c>
-      <c r="O6">
-        <v>103.39904</v>
-      </c>
-      <c r="P6">
-        <v>1.111E-2</v>
-      </c>
-      <c r="Q6">
-        <v>0.61916000000000004</v>
-      </c>
-      <c r="R6">
-        <v>2.9020000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="22" customHeight="1">
-      <c r="D7">
+      <c r="F13">
+        <v>23.838906000000001</v>
+      </c>
+      <c r="G13">
+        <v>20.633948</v>
+      </c>
+      <c r="H13">
+        <v>3.8432840000000001</v>
+      </c>
+      <c r="J13">
+        <v>16.018889999999999</v>
+      </c>
+      <c r="K13">
+        <v>6.5210000000000004E-2</v>
+      </c>
+      <c r="L13">
+        <v>7.7473700000000001</v>
+      </c>
+      <c r="M13">
+        <v>7.3800000000000003E-3</v>
+      </c>
+      <c r="O13">
+        <v>15.98555</v>
+      </c>
+      <c r="P13">
+        <v>6.6809999999999994E-2</v>
+      </c>
+      <c r="Q13">
+        <v>4.0101699999999996</v>
+      </c>
+      <c r="R13">
+        <v>0.57137000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1">
+      <c r="A14" s="2">
+        <v>9.8239579999999993</v>
+      </c>
+      <c r="D14">
         <v>40</v>
       </c>
-      <c r="F7">
-        <v>3285.3720640000001</v>
-      </c>
-      <c r="J7">
-        <v>3283.6979000000001</v>
-      </c>
-      <c r="K7">
-        <v>1.154E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.6612</v>
-      </c>
-      <c r="M7">
-        <v>1.3500000000000001E-3</v>
+      <c r="F14">
+        <v>178.02643599999999</v>
+      </c>
+      <c r="G14">
+        <v>174.37081499999999</v>
+      </c>
+      <c r="H14">
+        <v>4.6477620000000002</v>
+      </c>
+      <c r="J14">
+        <v>168.63459</v>
+      </c>
+      <c r="K14">
+        <v>6.4130000000000006E-2</v>
+      </c>
+      <c r="L14">
+        <v>9.3198600000000003</v>
+      </c>
+      <c r="M14">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="O14">
+        <v>168.86291</v>
+      </c>
+      <c r="P14">
+        <v>6.6809999999999994E-2</v>
+      </c>
+      <c r="Q14">
+        <v>4.8682699999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.57277999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1">
+      <c r="A15" s="2">
+        <v>11.763083999999999</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>1755.883548</v>
+      </c>
+      <c r="G15">
+        <v>1751.7141099999999</v>
+      </c>
+      <c r="H15">
+        <v>5.3496889999999997</v>
+      </c>
+      <c r="J15">
+        <v>1744.49928</v>
+      </c>
+      <c r="K15">
+        <v>6.3640000000000002E-2</v>
+      </c>
+      <c r="L15">
+        <v>11.31357</v>
+      </c>
+      <c r="M15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O15">
+        <v>1745.0517500000001</v>
+      </c>
+      <c r="P15">
+        <v>6.6949999999999996E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6.0267900000000001</v>
+      </c>
+      <c r="R15">
+        <v>0.56855999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1">
+      <c r="A16" s="2">
+        <v>13.242153999999999</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>14089.734146000001</v>
+      </c>
+      <c r="G16">
+        <v>14085.148206</v>
+      </c>
+      <c r="H16">
+        <v>6.1132330000000001</v>
+      </c>
+      <c r="J16">
+        <v>14074.080599999999</v>
+      </c>
+      <c r="K16">
+        <v>9.6110000000000001E-2</v>
+      </c>
+      <c r="L16">
+        <v>15.547890000000001</v>
+      </c>
+      <c r="M16">
+        <v>9.4400000000000005E-3</v>
+      </c>
+      <c r="O16">
+        <v>14076.41375</v>
+      </c>
+      <c r="P16">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="Q16">
+        <v>8.0900099999999995</v>
+      </c>
+      <c r="R16">
+        <v>0.54483999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -979,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -1009,6 +1375,18 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
       <c r="O1" t="s">
         <v>7</v>
       </c>
@@ -1023,199 +1401,227 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="22" customHeight="1">
-      <c r="E2">
-        <v>79991</v>
+      <c r="A2">
+        <v>20000</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>20.505569999999999</v>
+        <v>23.652556000000001</v>
       </c>
       <c r="G2">
-        <v>18.413672999999999</v>
+        <v>21.071356999999999</v>
       </c>
       <c r="H2">
-        <v>3.142369</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
+        <v>6.1367520000000004</v>
       </c>
       <c r="J2">
-        <v>15.028029999999999</v>
+        <v>16.31569</v>
       </c>
       <c r="K2">
-        <v>0.14127000000000001</v>
+        <v>6.3509999999999997E-2</v>
       </c>
       <c r="L2">
-        <v>5.28749</v>
+        <v>7.2668400000000002</v>
       </c>
       <c r="M2">
-        <v>6.1199999999999996E-3</v>
-      </c>
-      <c r="N2">
-        <v>7</v>
+        <v>6.45E-3</v>
       </c>
       <c r="O2">
-        <v>14.97217</v>
+        <v>16.312090000000001</v>
       </c>
       <c r="P2">
-        <v>6.6820000000000004E-2</v>
+        <v>6.6479999999999997E-2</v>
       </c>
       <c r="Q2">
-        <v>2.7979699999999998</v>
+        <v>4.1217300000000003</v>
       </c>
       <c r="R2">
-        <v>0.5766</v>
+        <v>0.57101000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1">
-      <c r="D3">
+      <c r="C3">
         <v>30</v>
       </c>
       <c r="F3">
-        <v>1896.32222</v>
+        <v>25.138006000000001</v>
       </c>
       <c r="G3">
-        <v>1893.5082890000001</v>
+        <v>22.309773</v>
       </c>
       <c r="H3">
-        <v>3.8375880000000002</v>
+        <v>8.0868749999999991</v>
       </c>
       <c r="J3">
-        <v>1888.7982300000001</v>
+        <v>16.928149999999999</v>
       </c>
       <c r="K3">
-        <v>6.3820000000000002E-2</v>
+        <v>6.3049999999999995E-2</v>
       </c>
       <c r="L3">
-        <v>7.4520299999999997</v>
+        <v>8.1398299999999999</v>
       </c>
       <c r="M3">
-        <v>8.0300000000000007E-3</v>
+        <v>6.9199999999999999E-3</v>
       </c>
       <c r="O3">
-        <v>1889.09078</v>
+        <v>16.96039</v>
       </c>
       <c r="P3">
-        <v>6.7570000000000005E-2</v>
+        <v>6.7729999999999999E-2</v>
       </c>
       <c r="Q3">
-        <v>3.7928600000000001</v>
+        <v>4.70817</v>
       </c>
       <c r="R3">
-        <v>0.55698000000000003</v>
+        <v>0.57335999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1">
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>26.484210999999998</v>
+      </c>
+      <c r="G4">
+        <v>23.110424999999999</v>
+      </c>
+      <c r="H4">
+        <v>10.206678</v>
+      </c>
+      <c r="J4">
+        <v>17.575279999999999</v>
+      </c>
+      <c r="K4">
+        <v>6.3839999999999994E-2</v>
+      </c>
+      <c r="L4">
+        <v>8.8362099999999995</v>
+      </c>
+      <c r="M4">
+        <v>8.8299999999999993E-3</v>
+      </c>
+      <c r="O4">
+        <v>17.570150000000002</v>
+      </c>
+      <c r="P4">
+        <v>6.7280000000000006E-2</v>
+      </c>
+      <c r="Q4">
+        <v>4.8965500000000004</v>
+      </c>
+      <c r="R4">
+        <v>0.57638999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1">
-      <c r="A5">
-        <v>4000</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
       <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>15989</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>3.651268</v>
+        <v>27.666058</v>
       </c>
       <c r="G5">
-        <v>3.2829670000000002</v>
+        <v>23.843405000000001</v>
       </c>
       <c r="H5">
-        <v>0.63297000000000003</v>
-      </c>
-      <c r="I5">
-        <v>13</v>
+        <v>12.507204</v>
       </c>
       <c r="J5">
-        <v>2.8585400000000001</v>
+        <v>18.25168</v>
       </c>
       <c r="K5">
-        <v>1.206E-2</v>
+        <v>6.343E-2</v>
       </c>
       <c r="L5">
-        <v>0.77947999999999995</v>
+        <v>9.3432399999999998</v>
       </c>
       <c r="M5">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="N5">
-        <v>7</v>
+        <v>7.5900000000000004E-3</v>
       </c>
       <c r="O5">
-        <v>2.8458800000000002</v>
+        <v>18.20241</v>
       </c>
       <c r="P5">
-        <v>1.132E-2</v>
+        <v>6.7169999999999994E-2</v>
       </c>
       <c r="Q5">
-        <v>0.39604</v>
+        <v>5.0006899999999996</v>
       </c>
       <c r="R5">
-        <v>2.964E-2</v>
+        <v>0.57308000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1">
-      <c r="D6">
-        <v>30</v>
+      <c r="C6">
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>104.776843</v>
+        <v>29.207941999999999</v>
       </c>
       <c r="G6">
-        <v>104.058409</v>
+        <v>25.075054000000002</v>
       </c>
       <c r="H6">
-        <v>0.753498</v>
+        <v>14.420738999999999</v>
       </c>
       <c r="J6">
-        <v>103.35774000000001</v>
+        <v>18.878050000000002</v>
       </c>
       <c r="K6">
-        <v>1.159E-2</v>
+        <v>6.3530000000000003E-2</v>
       </c>
       <c r="L6">
-        <v>1.4063399999999999</v>
+        <v>10.25787</v>
       </c>
       <c r="M6">
-        <v>1.09E-3</v>
+        <v>8.4399999999999996E-3</v>
       </c>
       <c r="O6">
-        <v>103.39904</v>
+        <v>18.836659999999998</v>
       </c>
       <c r="P6">
-        <v>1.111E-2</v>
+        <v>6.744E-2</v>
       </c>
       <c r="Q6">
-        <v>0.61916000000000004</v>
+        <v>5.5973899999999999</v>
       </c>
       <c r="R6">
-        <v>2.9020000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="22" customHeight="1">
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>3285.3720640000001</v>
-      </c>
-      <c r="J7">
-        <v>3283.6979000000001</v>
-      </c>
-      <c r="K7">
-        <v>1.154E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.6612</v>
-      </c>
-      <c r="M7">
-        <v>1.3500000000000001E-3</v>
+        <v>0.57350999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1">
+      <c r="A10" s="2">
+        <v>6.1367520000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1">
+      <c r="A11" s="2">
+        <v>8.0868749999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1">
+      <c r="A12" s="2">
+        <v>10.206678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1">
+      <c r="A13" s="2">
+        <v>12.507204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1">
+      <c r="A14" s="2">
+        <v>14.420738999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1231,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H3" sqref="H3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -1261,6 +1667,18 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
       <c r="O1" t="s">
         <v>7</v>
       </c>
@@ -1275,199 +1693,185 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="22" customHeight="1">
-      <c r="E2">
-        <v>79991</v>
-      </c>
-      <c r="F2">
-        <v>20.505569999999999</v>
-      </c>
-      <c r="G2">
-        <v>18.413672999999999</v>
-      </c>
-      <c r="H2">
-        <v>3.142369</v>
-      </c>
-      <c r="I2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1">
+      <c r="A3">
+        <v>15000</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>74987</v>
+      </c>
+      <c r="F3">
+        <v>139.84151199999999</v>
+      </c>
+      <c r="G3">
+        <v>134.21027000000001</v>
+      </c>
+      <c r="H3">
+        <v>7.616098</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>129.28730999999999</v>
+      </c>
+      <c r="K3">
+        <v>6.8080000000000002E-2</v>
+      </c>
+      <c r="L3">
+        <v>10.478910000000001</v>
+      </c>
+      <c r="M3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>129.29291000000001</v>
+      </c>
+      <c r="P3">
+        <v>6.8830000000000002E-2</v>
+      </c>
+      <c r="Q3">
+        <v>4.4392300000000002</v>
+      </c>
+      <c r="R3">
+        <v>0.40919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1">
+      <c r="A4">
+        <v>20000</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>79989</v>
+      </c>
+      <c r="F4">
+        <v>25.745018999999999</v>
+      </c>
+      <c r="G4">
+        <v>22.232151000000002</v>
+      </c>
+      <c r="H4">
+        <v>8.6341000000000001</v>
+      </c>
+      <c r="I4">
         <v>13</v>
       </c>
-      <c r="J2">
-        <v>15.028029999999999</v>
-      </c>
-      <c r="K2">
-        <v>0.14127000000000001</v>
-      </c>
-      <c r="L2">
-        <v>5.28749</v>
-      </c>
-      <c r="M2">
-        <v>6.1199999999999996E-3</v>
-      </c>
-      <c r="N2">
+      <c r="J4">
+        <v>16.918790000000001</v>
+      </c>
+      <c r="K4">
+        <v>6.4130000000000006E-2</v>
+      </c>
+      <c r="L4">
+        <v>8.7536400000000008</v>
+      </c>
+      <c r="M4">
+        <v>8.3599999999999994E-3</v>
+      </c>
+      <c r="N4">
         <v>7</v>
       </c>
-      <c r="O2">
-        <v>14.97217</v>
-      </c>
-      <c r="P2">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="Q2">
-        <v>2.7979699999999998</v>
-      </c>
-      <c r="R2">
-        <v>0.5766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="22" customHeight="1">
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>1896.32222</v>
-      </c>
-      <c r="G3">
-        <v>1893.5082890000001</v>
-      </c>
-      <c r="H3">
-        <v>3.8375880000000002</v>
-      </c>
-      <c r="J3">
-        <v>1888.7982300000001</v>
-      </c>
-      <c r="K3">
-        <v>6.3820000000000002E-2</v>
-      </c>
-      <c r="L3">
-        <v>7.4520299999999997</v>
-      </c>
-      <c r="M3">
-        <v>8.0300000000000007E-3</v>
-      </c>
-      <c r="O3">
-        <v>1889.09078</v>
-      </c>
-      <c r="P3">
-        <v>6.7570000000000005E-2</v>
-      </c>
-      <c r="Q3">
-        <v>3.7928600000000001</v>
-      </c>
-      <c r="R3">
-        <v>0.55698000000000003</v>
+      <c r="O4">
+        <v>16.949480000000001</v>
+      </c>
+      <c r="P4">
+        <v>6.6739999999999994E-2</v>
+      </c>
+      <c r="Q4">
+        <v>4.6470200000000004</v>
+      </c>
+      <c r="R4">
+        <v>0.56879999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1">
       <c r="A5">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>15989</v>
+        <v>89996</v>
       </c>
       <c r="F5">
-        <v>3.651268</v>
+        <v>12.83253</v>
       </c>
       <c r="G5">
-        <v>3.2829670000000002</v>
+        <v>9.6636380000000006</v>
       </c>
       <c r="H5">
-        <v>0.63297000000000003</v>
+        <v>9.7453889999999994</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>2.8585400000000001</v>
+        <v>4.2944100000000001</v>
       </c>
       <c r="K5">
-        <v>1.206E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="L5">
-        <v>0.77947999999999995</v>
+        <v>8.4672800000000006</v>
       </c>
       <c r="M5">
-        <v>1.1100000000000001E-3</v>
+        <v>9.9399999999999992E-3</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>2.8458800000000002</v>
+        <v>4.2460199999999997</v>
       </c>
       <c r="P5">
-        <v>1.132E-2</v>
+        <v>6.5710000000000005E-2</v>
       </c>
       <c r="Q5">
-        <v>0.39604</v>
+        <v>4.15341</v>
       </c>
       <c r="R5">
-        <v>2.964E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="22" customHeight="1">
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>104.776843</v>
-      </c>
-      <c r="G6">
-        <v>104.058409</v>
-      </c>
-      <c r="H6">
-        <v>0.753498</v>
-      </c>
-      <c r="J6">
-        <v>103.35774000000001</v>
-      </c>
-      <c r="K6">
-        <v>1.159E-2</v>
-      </c>
-      <c r="L6">
-        <v>1.4063399999999999</v>
-      </c>
-      <c r="M6">
-        <v>1.09E-3</v>
-      </c>
-      <c r="O6">
-        <v>103.39904</v>
-      </c>
-      <c r="P6">
-        <v>1.111E-2</v>
-      </c>
-      <c r="Q6">
-        <v>0.61916000000000004</v>
-      </c>
-      <c r="R6">
-        <v>2.9020000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="22" customHeight="1">
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>3285.3720640000001</v>
-      </c>
-      <c r="J7">
-        <v>3283.6979000000001</v>
-      </c>
-      <c r="K7">
-        <v>1.154E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.6612</v>
-      </c>
-      <c r="M7">
-        <v>1.3500000000000001E-3</v>
+        <v>1.1983900000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1483,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -1524,202 +1928,6 @@
       </c>
       <c r="R1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="22" customHeight="1">
-      <c r="E2">
-        <v>79991</v>
-      </c>
-      <c r="F2">
-        <v>20.505569999999999</v>
-      </c>
-      <c r="G2">
-        <v>18.413672999999999</v>
-      </c>
-      <c r="H2">
-        <v>3.142369</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>15.028029999999999</v>
-      </c>
-      <c r="K2">
-        <v>0.14127000000000001</v>
-      </c>
-      <c r="L2">
-        <v>5.28749</v>
-      </c>
-      <c r="M2">
-        <v>6.1199999999999996E-3</v>
-      </c>
-      <c r="N2">
-        <v>7</v>
-      </c>
-      <c r="O2">
-        <v>14.97217</v>
-      </c>
-      <c r="P2">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="Q2">
-        <v>2.7979699999999998</v>
-      </c>
-      <c r="R2">
-        <v>0.5766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="22" customHeight="1">
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>1896.32222</v>
-      </c>
-      <c r="G3">
-        <v>1893.5082890000001</v>
-      </c>
-      <c r="H3">
-        <v>3.8375880000000002</v>
-      </c>
-      <c r="J3">
-        <v>1888.7982300000001</v>
-      </c>
-      <c r="K3">
-        <v>6.3820000000000002E-2</v>
-      </c>
-      <c r="L3">
-        <v>7.4520299999999997</v>
-      </c>
-      <c r="M3">
-        <v>8.0300000000000007E-3</v>
-      </c>
-      <c r="O3">
-        <v>1889.09078</v>
-      </c>
-      <c r="P3">
-        <v>6.7570000000000005E-2</v>
-      </c>
-      <c r="Q3">
-        <v>3.7928600000000001</v>
-      </c>
-      <c r="R3">
-        <v>0.55698000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="22" customHeight="1">
-      <c r="A5">
-        <v>4000</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>15989</v>
-      </c>
-      <c r="F5">
-        <v>3.651268</v>
-      </c>
-      <c r="G5">
-        <v>3.2829670000000002</v>
-      </c>
-      <c r="H5">
-        <v>0.63297000000000003</v>
-      </c>
-      <c r="I5">
-        <v>13</v>
-      </c>
-      <c r="J5">
-        <v>2.8585400000000001</v>
-      </c>
-      <c r="K5">
-        <v>1.206E-2</v>
-      </c>
-      <c r="L5">
-        <v>0.77947999999999995</v>
-      </c>
-      <c r="M5">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="N5">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <v>2.8458800000000002</v>
-      </c>
-      <c r="P5">
-        <v>1.132E-2</v>
-      </c>
-      <c r="Q5">
-        <v>0.39604</v>
-      </c>
-      <c r="R5">
-        <v>2.964E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="22" customHeight="1">
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>104.776843</v>
-      </c>
-      <c r="G6">
-        <v>104.058409</v>
-      </c>
-      <c r="H6">
-        <v>0.753498</v>
-      </c>
-      <c r="J6">
-        <v>103.35774000000001</v>
-      </c>
-      <c r="K6">
-        <v>1.159E-2</v>
-      </c>
-      <c r="L6">
-        <v>1.4063399999999999</v>
-      </c>
-      <c r="M6">
-        <v>1.09E-3</v>
-      </c>
-      <c r="O6">
-        <v>103.39904</v>
-      </c>
-      <c r="P6">
-        <v>1.111E-2</v>
-      </c>
-      <c r="Q6">
-        <v>0.61916000000000004</v>
-      </c>
-      <c r="R6">
-        <v>2.9020000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="22" customHeight="1">
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>3285.3720640000001</v>
-      </c>
-      <c r="J7">
-        <v>3283.6979000000001</v>
-      </c>
-      <c r="K7">
-        <v>1.154E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.6612</v>
-      </c>
-      <c r="M7">
-        <v>1.3500000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/Workbook1.xlsx
+++ b/data/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
   <si>
     <t>N</t>
   </si>
@@ -59,6 +59,45 @@
   </si>
   <si>
     <t>Rapsodia</t>
+  </si>
+  <si>
+    <t>k=20</t>
+  </si>
+  <si>
+    <t>k=30</t>
+  </si>
+  <si>
+    <t>k=40</t>
+  </si>
+  <si>
+    <t>k=50</t>
+  </si>
+  <si>
+    <t>k=60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Compression</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>n=15,000</t>
+  </si>
+  <si>
+    <t>n=20,000</t>
+  </si>
+  <si>
+    <t>n=30.000</t>
   </si>
 </sst>
 </file>
@@ -117,8 +156,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -229,7 +304,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -282,6 +357,24 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -334,11 +427,1241 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$J$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pattern</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$37:$I$43</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$J$37:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>129.28731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.91879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.29441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.29291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.94948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.24602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$37:$I$43</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$K$37:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.06808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$37:$I$43</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$L$37:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.47891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.75364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.46728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.43923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.64702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.15341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$37:$I$43</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$M$37:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.19839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$N$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$37:$I$43</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>n=15,000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>n=20,000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n=30.000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$N$37:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="3">
+                  <c:v>701.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="25"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2100140904"/>
+        <c:axId val="-2117024216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2100140904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117024216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117024216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2100140904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.829861735173012"/>
+          <c:y val="0.109970836978711"/>
+          <c:w val="0.15545936574442"/>
+          <c:h val="0.520798702245553"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$J$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pattern</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$21:$I$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$J$21:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.06707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.93432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.4572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1753.22784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14098.7704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.92079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.92055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>171.55845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1753.54191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14115.01984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$21:$I$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$K$21:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.06385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06685</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$21:$I$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$L$21:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.18621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.26497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.90524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.46548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.39502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.45009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.34094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.57474</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.07206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$21:$I$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$M$21:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.00778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57074</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>b!$N$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>b!$H$21:$I$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>k=20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>k=30</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>k=40</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>k=50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>k=60</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Direct</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Indirect</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>b!$N$21:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>701.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="25"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2100035032"/>
+        <c:axId val="-2116266216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2100035032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116266216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2116266216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2100035032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.829861735173012"/>
+          <c:y val="0.109970836978711"/>
+          <c:w val="0.15545936574442"/>
+          <c:h val="0.520798702245553"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J34" workbookViewId="0">
+      <selection activeCell="K48" sqref="K47:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -1332,9 +2655,338 @@
         <v>0.54483999999999999</v>
       </c>
     </row>
+    <row r="20" spans="8:14" ht="22" customHeight="1">
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="8:14" ht="22" customHeight="1">
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>3.0670700000000002</v>
+      </c>
+      <c r="K21">
+        <v>6.3850000000000004E-2</v>
+      </c>
+      <c r="L21">
+        <v>6.18621</v>
+      </c>
+      <c r="M21">
+        <v>7.7799999999999996E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" ht="22" customHeight="1">
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>16.93432</v>
+      </c>
+      <c r="K22">
+        <v>6.2979999999999994E-2</v>
+      </c>
+      <c r="L22">
+        <v>8.2649699999999999</v>
+      </c>
+      <c r="M22">
+        <v>5.9899999999999997E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="8:14" ht="22" customHeight="1">
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>171.4572</v>
+      </c>
+      <c r="K23">
+        <v>6.3630000000000006E-2</v>
+      </c>
+      <c r="L23">
+        <v>9.9052399999999992</v>
+      </c>
+      <c r="M23">
+        <v>8.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" ht="22" customHeight="1">
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>1753.22784</v>
+      </c>
+      <c r="K24">
+        <v>6.4269999999999994E-2</v>
+      </c>
+      <c r="L24">
+        <v>12.465479999999999</v>
+      </c>
+      <c r="M24">
+        <v>8.3099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" ht="22" customHeight="1">
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>14098.770399999999</v>
+      </c>
+      <c r="K25">
+        <v>9.0389999999999998E-2</v>
+      </c>
+      <c r="L25">
+        <v>15.395020000000001</v>
+      </c>
+      <c r="M25">
+        <v>9.1599999999999997E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" ht="22" customHeight="1">
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="27" spans="8:14" ht="22" customHeight="1">
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>2.9207900000000002</v>
+      </c>
+      <c r="K27">
+        <v>6.6850000000000007E-2</v>
+      </c>
+      <c r="L27">
+        <v>3.6027</v>
+      </c>
+      <c r="M27">
+        <v>0.54737999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="8:14" ht="22" customHeight="1">
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>16.920549999999999</v>
+      </c>
+      <c r="K28">
+        <v>6.6689999999999999E-2</v>
+      </c>
+      <c r="L28">
+        <v>4.4500900000000003</v>
+      </c>
+      <c r="M28">
+        <v>0.56964000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="8:14" ht="22" customHeight="1">
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>171.55844999999999</v>
+      </c>
+      <c r="K29">
+        <v>6.701E-2</v>
+      </c>
+      <c r="L29">
+        <v>5.3409399999999998</v>
+      </c>
+      <c r="M29">
+        <v>0.57233999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="8:14" ht="22" customHeight="1">
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <v>1753.5419099999999</v>
+      </c>
+      <c r="K30">
+        <v>6.6949999999999996E-2</v>
+      </c>
+      <c r="L30">
+        <v>6.5747400000000003</v>
+      </c>
+      <c r="M30">
+        <v>0.57074000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="8:14" ht="22" customHeight="1">
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>14115.019840000001</v>
+      </c>
+      <c r="K31">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="L31">
+        <v>9.0720600000000005</v>
+      </c>
+      <c r="M31">
+        <v>0.57410000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" ht="22" customHeight="1">
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14" ht="22" customHeight="1">
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37">
+        <v>129.28730999999999</v>
+      </c>
+      <c r="K37">
+        <v>6.8080000000000002E-2</v>
+      </c>
+      <c r="L37">
+        <v>10.478910000000001</v>
+      </c>
+      <c r="M37">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" ht="22" customHeight="1">
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38">
+        <v>16.918790000000001</v>
+      </c>
+      <c r="K38">
+        <v>6.4130000000000006E-2</v>
+      </c>
+      <c r="L38">
+        <v>8.7536400000000008</v>
+      </c>
+      <c r="M38">
+        <v>8.3599999999999994E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14" ht="22" customHeight="1">
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39">
+        <v>4.2944100000000001</v>
+      </c>
+      <c r="K39">
+        <v>6.08E-2</v>
+      </c>
+      <c r="L39">
+        <v>8.4672800000000006</v>
+      </c>
+      <c r="M39">
+        <v>9.9399999999999992E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="8:14" ht="22" customHeight="1">
+      <c r="N40">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="41" spans="8:14" ht="22" customHeight="1">
+      <c r="H41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41">
+        <v>129.29291000000001</v>
+      </c>
+      <c r="K41">
+        <v>6.8830000000000002E-2</v>
+      </c>
+      <c r="L41">
+        <v>4.4392300000000002</v>
+      </c>
+      <c r="M41">
+        <v>0.40919</v>
+      </c>
+    </row>
+    <row r="42" spans="8:14" ht="22" customHeight="1">
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42">
+        <v>16.949480000000001</v>
+      </c>
+      <c r="K42">
+        <v>6.6739999999999994E-2</v>
+      </c>
+      <c r="L42">
+        <v>4.6470200000000004</v>
+      </c>
+      <c r="M42">
+        <v>0.56879999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="8:14" ht="22" customHeight="1">
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43">
+        <v>4.2460199999999997</v>
+      </c>
+      <c r="K43">
+        <v>6.5710000000000005E-2</v>
+      </c>
+      <c r="L43">
+        <v>4.15341</v>
+      </c>
+      <c r="M43">
+        <v>1.1983900000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1639,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H5"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
